--- a/static/files/Upload-Extract-Template.xlsx
+++ b/static/files/Upload-Extract-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E80C7-01CF-4EBB-9BDA-0563FDFB498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BABF509-59A7-4AA8-B0B3-F033AE12FC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{36A747DD-A156-4061-A8E5-208329CBF101}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>title</t>
   </si>
@@ -59,13 +59,10 @@
     <t>pdf</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>approved</t>
   </si>
 </sst>
 </file>
@@ -428,17 +425,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EACE1E5-5B19-4A78-A62E-12C0E842E083}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -459,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -467,20 +468,15 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>